--- a/HyPAT/data_files/persistent_permeation_input_variables.xlsx
+++ b/HyPAT/data_files/persistent_permeation_input_variables.xlsx
@@ -490,7 +490,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="11.125" bestFit="1" customWidth="1" min="8" max="8"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>133.322</v>
       </c>
     </row>
     <row r="4">
